--- a/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
@@ -451,435 +451,585 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6109</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>090010</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>大成中证红利指数A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>94.38</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.47</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>161907</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>94.92</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1.53</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>510880</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证红利ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>98.27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005125</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501029</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005561</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>97.75</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -889,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1060,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501029</t>
+          <t>510880</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+          <t>华泰柏瑞上证红利ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>138.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7952</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005399</t>
+          <t>100032</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长信量化价值驱动混合A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>46.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7892</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009669</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信量化价值驱动混合C</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4124</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>501029</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>11.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>515180</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>易方达中证红利ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161907</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>万家中证红利指数(LOF)</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006729</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家中证500指数增强A</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006730</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>万家中证500指数增强C</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501072</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>100.47</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>005399</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>长信量化价值驱动混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>510880</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证红利ETF</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>97.61</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>080005</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>长盛量化红利混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>515080</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>招商中证红利ETF</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>515180</t>
+          <t>009669</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达中证红利ETF</t>
+          <t>长信量化价值驱动混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>99.03</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>98.47</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>080005</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>长盛量化红利混合</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>515890</t>
+          <t>161907</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>博时中证红利ETF</t>
+          <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>98.94</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>090010</t>
+          <t>005161</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>华商上游产业股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1434,25 +1774,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007801</t>
+          <t>515890</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大成中证红利指数C</t>
+          <t>博时中证红利ETF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>100032</t>
+          <t>006729</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>万家中证500指数增强A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005161</t>
+          <t>006730</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华商上游产业股票</t>
+          <t>万家中证500指数增强C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>501072</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>100.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1923,4 +1924,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8291</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2322,4 +2323,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>154.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3318</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4577</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2759,4 +2760,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2768,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2779,17 +2780,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2799,14 +2820,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.48</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2815,14 +2858,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.51</v>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9813</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2831,14 +2896,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.17</v>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2847,13 +2934,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4043</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515690</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证高股息龙头ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3357,7 +3358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3368,17 +3369,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3388,14 +3409,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.71</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>181.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1087</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3404,14 +3447,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.48</v>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3420,14 +3485,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.51</v>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3436,14 +3523,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.17</v>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -3452,13 +3561,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>46.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3756,7 +3757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3767,17 +3768,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3787,14 +3808,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.22</v>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3803,14 +3846,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.71</v>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3819,14 +3884,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.48</v>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3835,14 +3922,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>6.51</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="6">
@@ -3851,14 +4060,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>7.17</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="7">
@@ -3867,13 +4076,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>4.22</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>6.71</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>7.48</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>6.51</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>7.17</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.78</v>
       </c>
     </row>
@@ -600,6 +617,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159617</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证智选500价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -807,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1205,7 +1392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1793,7 +1980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2229,7 +2416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2627,7 +2814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3519,7 +3706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600282-南钢股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>4.22</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>6.71</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>7.48</v>
+        <v>6.71</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>6.51</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>7.17</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,618 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>14</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6109</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1222,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9557</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1103</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3989</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3599</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159617</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏中证智选500价值稳健策略ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -786,7 +1903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -994,7 +2111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1392,7 +2509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1980,7 +3097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2416,7 +3533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2814,7 +3931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3704,592 +4821,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证红利ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.27</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6109</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>090010</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成中证红利指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>22.87</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3362</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.73</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2165</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005125</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1694</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501029</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1694</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0789</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0663</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005561</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0462</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0334</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>97.75</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>161907</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>万家中证红利指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.92</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>